--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>runname</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>C.ADC_r5.25</t>
+  </si>
+  <si>
+    <t>SegalCon</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Y15"/>
+  <dimension ref="A4:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,17 +542,17 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="17" max="18" width="12.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="18" max="19" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,61 +575,64 @@
         <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -645,14 +651,14 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5">
-        <v>0.14000000000000001</v>
+      <c r="H5" t="b">
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
+      <c r="J5">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -660,48 +666,51 @@
       <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>16</v>
       </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
       <c r="O5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T5">
-        <f>0.797</f>
-        <v>0.79700000000000004</v>
-      </c>
       <c r="U5">
+        <f>0.0797</f>
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="V5">
         <v>0.12</v>
       </c>
-      <c r="V5">
-        <v>20</v>
-      </c>
       <c r="W5">
         <v>20</v>
       </c>
       <c r="X5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y5">
+        <v>30</v>
+      </c>
+      <c r="Z5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -720,14 +729,14 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6">
-        <v>0.14000000000000001</v>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
+      <c r="J6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -735,48 +744,51 @@
       <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>16</v>
       </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
       <c r="O6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T6">
-        <f t="shared" ref="T6:T7" si="0">0.797</f>
-        <v>0.79700000000000004</v>
-      </c>
       <c r="U6">
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="U6:U7" si="0">0.0797</f>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="V6">
-        <v>20</v>
+        <v>0.12</v>
       </c>
       <c r="W6">
         <v>20</v>
       </c>
       <c r="X6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -795,14 +807,14 @@
       <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="H7">
-        <v>0.14000000000000001</v>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
+      <c r="J7">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -810,48 +822,51 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="N7">
-        <v>20</v>
-      </c>
       <c r="O7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="0"/>
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="U7">
-        <v>2.12</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="V7">
-        <v>20</v>
+        <v>0.12</v>
       </c>
       <c r="W7">
         <v>20</v>
       </c>
       <c r="X7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y7">
+        <v>30</v>
+      </c>
+      <c r="Z7">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -870,14 +885,14 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="H9">
-        <v>0.14000000000000001</v>
+      <c r="H9" t="b">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
+      <c r="J9">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -885,48 +900,51 @@
       <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>16</v>
       </c>
-      <c r="N9">
-        <v>20</v>
-      </c>
       <c r="O9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T9">
-        <f>0.997</f>
-        <v>0.997</v>
-      </c>
       <c r="U9">
+        <f>0.0997</f>
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="V9">
         <v>0.12</v>
       </c>
-      <c r="V9">
-        <v>20</v>
-      </c>
       <c r="W9">
         <v>20</v>
       </c>
       <c r="X9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y9">
+        <v>30</v>
+      </c>
+      <c r="Z9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -945,14 +963,14 @@
       <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="H10">
-        <v>0.14000000000000001</v>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J10" t="b">
-        <v>1</v>
+      <c r="J10">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -960,48 +978,51 @@
       <c r="L10" t="b">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
       <c r="O10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T10">
-        <f t="shared" ref="T10:T11" si="1">0.997</f>
-        <v>0.997</v>
-      </c>
       <c r="U10">
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="U10:U11" si="1">0.0997</f>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="V10">
-        <v>20</v>
+        <v>0.12</v>
       </c>
       <c r="W10">
         <v>20</v>
       </c>
       <c r="X10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y10">
+        <v>30</v>
+      </c>
+      <c r="Z10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1020,14 +1041,14 @@
       <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="H11">
-        <v>0.14000000000000001</v>
+      <c r="H11" t="b">
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
+      <c r="J11">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1035,48 +1056,51 @@
       <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>16</v>
       </c>
-      <c r="N11">
-        <v>20</v>
-      </c>
       <c r="O11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>5</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="1"/>
-        <v>0.997</v>
-      </c>
-      <c r="U11">
-        <v>2.12</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="V11">
-        <v>20</v>
+        <v>0.12</v>
       </c>
       <c r="W11">
         <v>20</v>
       </c>
       <c r="X11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y11">
+        <v>30</v>
+      </c>
+      <c r="Z11">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1095,14 +1119,14 @@
       <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="H13">
-        <v>0.14000000000000001</v>
+      <c r="H13" t="b">
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J13" t="b">
-        <v>1</v>
+      <c r="J13">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1110,47 +1134,50 @@
       <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>16</v>
       </c>
-      <c r="N13">
-        <v>20</v>
-      </c>
       <c r="O13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>5</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T13">
-        <v>0.59699999999999998</v>
-      </c>
       <c r="U13">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="V13">
         <v>0.12</v>
       </c>
-      <c r="V13">
-        <v>20</v>
-      </c>
       <c r="W13">
         <v>20</v>
       </c>
       <c r="X13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y13">
+        <v>30</v>
+      </c>
+      <c r="Z13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1169,14 +1196,14 @@
       <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H14">
-        <v>0.14000000000000001</v>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J14" t="b">
-        <v>1</v>
+      <c r="J14">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1184,47 +1211,50 @@
       <c r="L14" t="b">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>16</v>
       </c>
-      <c r="N14">
-        <v>20</v>
-      </c>
       <c r="O14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>5</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T14">
-        <v>0.59699999999999998</v>
-      </c>
       <c r="U14">
-        <v>1.1200000000000001</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="V14">
-        <v>20</v>
+        <v>0.12</v>
       </c>
       <c r="W14">
         <v>20</v>
       </c>
       <c r="X14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y14">
+        <v>30</v>
+      </c>
+      <c r="Z14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1243,14 +1273,14 @@
       <c r="G15" t="s">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>0.14000000000000001</v>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J15" t="b">
-        <v>1</v>
+      <c r="J15">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1258,43 +1288,46 @@
       <c r="L15" t="b">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>16</v>
       </c>
-      <c r="N15">
-        <v>20</v>
-      </c>
       <c r="O15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>5</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="T15">
-        <v>0.59699999999999998</v>
-      </c>
       <c r="U15">
-        <v>2.12</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="V15">
-        <v>20</v>
+        <v>0.12</v>
       </c>
       <c r="W15">
         <v>20</v>
       </c>
       <c r="X15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y15">
+        <v>30</v>
+      </c>
+      <c r="Z15">
         <v>15</v>
       </c>
     </row>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A4:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
+    <sheet name="returns" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>runname</t>
   </si>
@@ -136,13 +137,60 @@
   </si>
   <si>
     <t>SegalCon</t>
+  </si>
+  <si>
+    <t>r.mean</t>
+  </si>
+  <si>
+    <t>r.sd</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>return_det</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>RS2</t>
+  </si>
+  <si>
+    <t>RS3</t>
+  </si>
+  <si>
+    <t>RS4</t>
+  </si>
+  <si>
+    <t>RS5</t>
+  </si>
+  <si>
+    <t>return_type</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>return_scenario</t>
+  </si>
+  <si>
+    <t>RS1.Cap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +200,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,10 +261,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -217,8 +273,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Z15"/>
+  <dimension ref="A4:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,12 +619,13 @@
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="18" max="19" width="12.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" customWidth="1"/>
+    <col min="18" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,33 +684,39 @@
         <v>19</v>
       </c>
       <c r="T4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -687,35 +766,38 @@
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f>0.0797</f>
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.12</v>
       </c>
-      <c r="W5">
-        <v>20</v>
-      </c>
-      <c r="X5">
-        <v>20</v>
-      </c>
       <c r="Y5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z5">
+        <v>20</v>
+      </c>
+      <c r="AA5">
+        <v>30</v>
+      </c>
+      <c r="AB5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -765,35 +847,38 @@
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U6">
-        <f t="shared" ref="U6:U7" si="0">0.0797</f>
+      <c r="W6">
+        <f t="shared" ref="W6:W7" si="0">0.0797</f>
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.12</v>
       </c>
-      <c r="W6">
-        <v>20</v>
-      </c>
-      <c r="X6">
-        <v>20</v>
-      </c>
       <c r="Y6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2000</v>
@@ -843,35 +928,38 @@
       <c r="S7">
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.12</v>
       </c>
-      <c r="W7">
-        <v>20</v>
-      </c>
-      <c r="X7">
-        <v>20</v>
-      </c>
       <c r="Y7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>30</v>
+      </c>
+      <c r="AB7">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -921,35 +1009,38 @@
       <c r="S9">
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f>0.0997</f>
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.12</v>
       </c>
-      <c r="W9">
-        <v>20</v>
-      </c>
-      <c r="X9">
-        <v>20</v>
-      </c>
       <c r="Y9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z9">
+        <v>20</v>
+      </c>
+      <c r="AA9">
+        <v>30</v>
+      </c>
+      <c r="AB9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -999,35 +1090,38 @@
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U10">
-        <f t="shared" ref="U10:U11" si="1">0.0997</f>
+      <c r="W10">
+        <f t="shared" ref="W10:W11" si="1">0.0997</f>
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.12</v>
       </c>
-      <c r="W10">
-        <v>20</v>
-      </c>
-      <c r="X10">
-        <v>20</v>
-      </c>
       <c r="Y10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <v>30</v>
+      </c>
+      <c r="AB10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2000</v>
@@ -1077,35 +1171,38 @@
       <c r="S11">
         <v>1</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f t="shared" si="1"/>
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.12</v>
       </c>
-      <c r="W11">
-        <v>20</v>
-      </c>
-      <c r="X11">
-        <v>20</v>
-      </c>
       <c r="Y11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AA11">
+        <v>30</v>
+      </c>
+      <c r="AB11">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>2000</v>
@@ -1155,34 +1252,37 @@
       <c r="S13">
         <v>1</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.12</v>
       </c>
-      <c r="W13">
-        <v>20</v>
-      </c>
-      <c r="X13">
-        <v>20</v>
-      </c>
       <c r="Y13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z13">
+        <v>20</v>
+      </c>
+      <c r="AA13">
+        <v>30</v>
+      </c>
+      <c r="AB13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>2000</v>
@@ -1232,34 +1332,37 @@
       <c r="S14">
         <v>1</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.12</v>
       </c>
-      <c r="W14">
-        <v>20</v>
-      </c>
-      <c r="X14">
-        <v>20</v>
-      </c>
       <c r="Y14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z14">
+        <v>20</v>
+      </c>
+      <c r="AA14">
+        <v>30</v>
+      </c>
+      <c r="AB14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1309,30 +1412,439 @@
       <c r="S15">
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.12</v>
       </c>
-      <c r="W15">
-        <v>20</v>
-      </c>
-      <c r="X15">
-        <v>20</v>
-      </c>
       <c r="Y15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z15">
+        <v>20</v>
+      </c>
+      <c r="AA15">
+        <v>30</v>
+      </c>
+      <c r="AB15">
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18" si="2">0.0797</f>
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="X18">
+        <v>0.12</v>
+      </c>
+      <c r="Y18">
+        <v>20</v>
+      </c>
+      <c r="Z18">
+        <v>20</v>
+      </c>
+      <c r="AA18">
+        <v>30</v>
+      </c>
+      <c r="AB18">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C18">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>B2-C2^2/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="0">B3-C3^2/2</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0.08</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5.3749999999999999E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5.3749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6.1249999999999999E-2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6.1249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6.8750000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>runname</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>RS1.Cap</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>RS1.ADC</t>
   </si>
 </sst>
 </file>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AB18"/>
+  <dimension ref="A4:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
         <v>43</v>
@@ -1502,7 +1508,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="W18">
-        <f t="shared" ref="W18" si="2">0.0797</f>
+        <f t="shared" ref="W18:W19" si="2">0.0797</f>
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="X18">
@@ -1521,10 +1527,97 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="X19">
+        <v>0.12</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>20</v>
+      </c>
+      <c r="AA19">
+        <v>30</v>
+      </c>
+      <c r="AB19">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C18">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C19">
       <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T19">
+      <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1537,7 +1630,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
   <si>
     <t>runname</t>
   </si>
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t>RS1.ADC</t>
+  </si>
+  <si>
+    <t>RS2.Cap</t>
+  </si>
+  <si>
+    <t>RS3.Cap</t>
+  </si>
+  <si>
+    <t>RS4.Cap</t>
+  </si>
+  <si>
+    <t>RS5.Cap</t>
+  </si>
+  <si>
+    <t>RS2.ADC</t>
+  </si>
+  <si>
+    <t>RS3.ADC</t>
+  </si>
+  <si>
+    <t>RS4.ADC</t>
+  </si>
+  <si>
+    <t>RS5.ADC</t>
   </si>
 </sst>
 </file>
@@ -609,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AB19"/>
+  <dimension ref="A4:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,13 +1531,6 @@
       <c r="V18">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W18">
-        <f t="shared" ref="W18:W19" si="2">0.0797</f>
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="X18">
-        <v>0.12</v>
-      </c>
       <c r="Y18">
         <v>20</v>
       </c>
@@ -1529,7 +1546,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1544,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1586,18 +1603,11 @@
         <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W19">
-        <f t="shared" si="2"/>
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="X19">
-        <v>0.12</v>
-      </c>
       <c r="Y19">
         <v>20</v>
       </c>
@@ -1611,12 +1621,628 @@
         <v>15</v>
       </c>
     </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y20">
+        <v>20</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <v>30</v>
+      </c>
+      <c r="AB20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>30</v>
+      </c>
+      <c r="AB21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y22">
+        <v>20</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+      <c r="AA22">
+        <v>30</v>
+      </c>
+      <c r="AB22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24">
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>53</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y24">
+        <v>20</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
+      <c r="AA24">
+        <v>30</v>
+      </c>
+      <c r="AB24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" t="s">
+        <v>44</v>
+      </c>
+      <c r="V25">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y25">
+        <v>20</v>
+      </c>
+      <c r="Z25">
+        <v>20</v>
+      </c>
+      <c r="AA25">
+        <v>30</v>
+      </c>
+      <c r="AB25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26" t="s">
+        <v>45</v>
+      </c>
+      <c r="V26">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y26">
+        <v>20</v>
+      </c>
+      <c r="Z26">
+        <v>20</v>
+      </c>
+      <c r="AA26">
+        <v>30</v>
+      </c>
+      <c r="AB26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <v>20</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>53</v>
+      </c>
+      <c r="U27" t="s">
+        <v>46</v>
+      </c>
+      <c r="V27">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y27">
+        <v>20</v>
+      </c>
+      <c r="Z27">
+        <v>20</v>
+      </c>
+      <c r="AA27">
+        <v>30</v>
+      </c>
+      <c r="AB27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2000</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>53</v>
+      </c>
+      <c r="U28" t="s">
+        <v>47</v>
+      </c>
+      <c r="V28">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y28">
+        <v>20</v>
+      </c>
+      <c r="Z28">
+        <v>20</v>
+      </c>
+      <c r="AA28">
+        <v>30</v>
+      </c>
+      <c r="AB28">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C28">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T28">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1630,7 +2256,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>runname</t>
   </si>
@@ -209,6 +209,21 @@
   </si>
   <si>
     <t>RS5.ADC</t>
+  </si>
+  <si>
+    <t>RS1.noCap</t>
+  </si>
+  <si>
+    <t>RS2.noCap</t>
+  </si>
+  <si>
+    <t>RS3.noCap</t>
+  </si>
+  <si>
+    <t>RS4.noCap</t>
+  </si>
+  <si>
+    <t>RS5.noCap</t>
   </si>
 </sst>
 </file>
@@ -633,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AB28"/>
+  <dimension ref="A4:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1869,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1931,7 +1946,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2008,7 +2023,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2085,7 +2100,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2162,7 +2177,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2237,12 +2252,397 @@
         <v>15</v>
       </c>
     </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2000</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>53</v>
+      </c>
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y30">
+        <v>20</v>
+      </c>
+      <c r="Z30">
+        <v>20</v>
+      </c>
+      <c r="AA30">
+        <v>30</v>
+      </c>
+      <c r="AB30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2000</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31">
+        <v>20</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y31">
+        <v>20</v>
+      </c>
+      <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31">
+        <v>30</v>
+      </c>
+      <c r="AB31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y32">
+        <v>20</v>
+      </c>
+      <c r="Z32">
+        <v>20</v>
+      </c>
+      <c r="AA32">
+        <v>30</v>
+      </c>
+      <c r="AB32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2000</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U33" t="s">
+        <v>46</v>
+      </c>
+      <c r="V33">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y33">
+        <v>20</v>
+      </c>
+      <c r="Z33">
+        <v>20</v>
+      </c>
+      <c r="AA33">
+        <v>30</v>
+      </c>
+      <c r="AB33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" t="s">
+        <v>47</v>
+      </c>
+      <c r="V34">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y34">
+        <v>20</v>
+      </c>
+      <c r="Z34">
+        <v>20</v>
+      </c>
+      <c r="AA34">
+        <v>30</v>
+      </c>
+      <c r="AB34">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C28 C30:C34">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T28 T30:T34">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2255,12 +2655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2286,53 +2687,51 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
-      </c>
-      <c r="C2">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="C2" s="13">
         <v>0.1</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9">
         <f>B2-C2^2/2</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.1</v>
       </c>
       <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">B3-C3^2/2</f>
-        <v>6.5000000000000002E-2</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>0.08</v>
-      </c>
-      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5.3749999999999999E-2</v>
+      </c>
+      <c r="C4" s="8">
         <v>0.1</v>
       </c>
       <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5.3749999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,7 +2739,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="7">
-        <v>0.05</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="C5" s="8">
         <v>0.1</v>
@@ -2349,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>0.05</v>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,7 +2756,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="7">
-        <v>5.3749999999999999E-2</v>
+        <v>6.1249999999999999E-2</v>
       </c>
       <c r="C6" s="8">
         <v>0.1</v>
@@ -2366,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>5.3749999999999999E-2</v>
+        <v>6.1249999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,7 +2773,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="7">
-        <v>5.7500000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C7" s="8">
         <v>0.1</v>
@@ -2383,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>5.7500000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,7 +2790,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="7">
-        <v>6.1249999999999999E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="C8" s="8">
         <v>0.1</v>
@@ -2400,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>6.1249999999999999E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,77 +2807,79 @@
         <v>44</v>
       </c>
       <c r="B9" s="7">
-        <v>6.5000000000000002E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="C9" s="8">
         <v>0.1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>6.5000000000000002E-2</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="9">
+        <f>B9-C9^2/2</f>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="7">
-        <v>6.8750000000000006E-2</v>
-      </c>
-      <c r="C10" s="8">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10">
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6.8750000000000006E-2</v>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f>B10-C10^2/2</f>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="7">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="C11" s="8">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11">
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>7.2499999999999995E-2</v>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f>B11-C11^2/2</f>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="10">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12">
+        <v>0.08</v>
+      </c>
+      <c r="C12">
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <f>B12-C12^2/2</f>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="10">
-        <v>6.5000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C13" s="11">
         <v>0.1</v>
@@ -2487,80 +2888,80 @@
         <v>5</v>
       </c>
       <c r="E13" s="9">
+        <f t="shared" ref="E13:E17" si="0">B13-C13^2/2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="C15" s="11">
         <v>0.1</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>5.4999999999999993E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="12">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C16" s="13">
         <v>0.1</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>5.4999999999999993E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17">
-        <v>7.7499999999999999E-2</v>
+      <c r="B17" s="12">
+        <v>0.08</v>
       </c>
       <c r="C17" s="13">
         <v>0.1</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>7.2499999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AB34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -923,7 +923,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2000</v>
@@ -1004,7 +1004,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -1085,7 +1085,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -1166,7 +1166,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2000</v>
@@ -1247,7 +1247,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2000</v>
@@ -1327,7 +1327,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2000</v>
@@ -1407,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1546,6 +1546,12 @@
       <c r="V18">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="W18">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0.1</v>
+      </c>
       <c r="Y18">
         <v>20</v>
       </c>
@@ -1931,6 +1937,12 @@
       <c r="V24">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="W24">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0.1</v>
+      </c>
       <c r="Y24">
         <v>20</v>
       </c>
@@ -2316,6 +2328,12 @@
       <c r="V30">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="W30">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="X30" s="13">
+        <v>0.1</v>
+      </c>
       <c r="Y30">
         <v>20</v>
       </c>
@@ -2639,7 +2657,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C28 C30:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C34 C5:C28">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T28 T30:T34">
@@ -2655,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" activeCellId="1" sqref="B2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>runname</t>
   </si>
@@ -224,6 +224,30 @@
   </si>
   <si>
     <t>RS5.noCap</t>
+  </si>
+  <si>
+    <t>RS6.Cap</t>
+  </si>
+  <si>
+    <t>RS7.Cap</t>
+  </si>
+  <si>
+    <t>2015 UCRP portfolio</t>
+  </si>
+  <si>
+    <t>Allan portfolio</t>
+  </si>
+  <si>
+    <t>RS6.noCap</t>
+  </si>
+  <si>
+    <t>RS7.noCap</t>
+  </si>
+  <si>
+    <t>RS6.ADC</t>
+  </si>
+  <si>
+    <t>RS7.ADC</t>
   </si>
 </sst>
 </file>
@@ -310,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -333,6 +357,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -648,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AB34"/>
+  <dimension ref="A4:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1577,7 @@
       <c r="W18">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="14">
         <v>0.1</v>
       </c>
       <c r="Y18">
@@ -1629,6 +1657,7 @@
       <c r="V19">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="X19" s="15"/>
       <c r="Y19">
         <v>20</v>
       </c>
@@ -1706,6 +1735,7 @@
       <c r="V20">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="X20" s="15"/>
       <c r="Y20">
         <v>20</v>
       </c>
@@ -1783,6 +1813,7 @@
       <c r="V21">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="X21" s="15"/>
       <c r="Y21">
         <v>20</v>
       </c>
@@ -1860,6 +1891,7 @@
       <c r="V22">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="X22" s="15"/>
       <c r="Y22">
         <v>20</v>
       </c>
@@ -1873,9 +1905,95 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="W23">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="X23" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="Y23">
+        <v>20</v>
+      </c>
+      <c r="Z23">
+        <v>20</v>
+      </c>
+      <c r="AA23">
+        <v>30</v>
+      </c>
+      <c r="AB23">
+        <v>15</v>
+      </c>
+    </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1890,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1929,19 +2047,16 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="V24">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="W24">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="X24" s="13">
-        <v>0.1</v>
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="X24" s="14">
+        <v>0.16</v>
       </c>
       <c r="Y24">
         <v>20</v>
@@ -1957,162 +2072,11 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2000</v>
-      </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25">
-        <v>20</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25" t="s">
-        <v>53</v>
-      </c>
-      <c r="U25" t="s">
-        <v>44</v>
-      </c>
-      <c r="V25">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="Y25">
-        <v>20</v>
-      </c>
-      <c r="Z25">
-        <v>20</v>
-      </c>
-      <c r="AA25">
-        <v>30</v>
-      </c>
-      <c r="AB25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2000</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J26">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26">
-        <v>20</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" t="s">
-        <v>45</v>
-      </c>
-      <c r="V26">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="Y26">
-        <v>20</v>
-      </c>
-      <c r="Z26">
-        <v>20</v>
-      </c>
-      <c r="AA26">
-        <v>30</v>
-      </c>
-      <c r="AB26">
-        <v>15</v>
-      </c>
+      <c r="X25" s="14"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2169,11 +2133,17 @@
         <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V27">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="W27">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="X27" s="13">
+        <v>0.1</v>
+      </c>
       <c r="Y27">
         <v>20</v>
       </c>
@@ -2189,7 +2159,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2246,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V28">
         <v>7.2499999999999995E-2</v>
@@ -2264,9 +2234,86 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2000</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>53</v>
+      </c>
+      <c r="U29" t="s">
+        <v>45</v>
+      </c>
+      <c r="V29">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y29">
+        <v>20</v>
+      </c>
+      <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29">
+        <v>30</v>
+      </c>
+      <c r="AB29">
+        <v>15</v>
+      </c>
+    </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2299,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
         <v>16</v>
@@ -2323,17 +2370,11 @@
         <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V30">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W30">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="X30" s="13">
-        <v>0.1</v>
-      </c>
       <c r="Y30">
         <v>20</v>
       </c>
@@ -2349,7 +2390,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2382,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
         <v>16</v>
@@ -2406,7 +2447,7 @@
         <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V31">
         <v>7.2499999999999995E-2</v>
@@ -2426,7 +2467,10 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2459,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
         <v>16</v>
@@ -2480,14 +2524,17 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="V32">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="W32">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="X32" s="14">
+        <v>0.11</v>
+      </c>
       <c r="Y32">
         <v>20</v>
       </c>
@@ -2503,7 +2550,10 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2536,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="M33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
         <v>16</v>
@@ -2557,14 +2607,17 @@
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
-      </c>
-      <c r="U33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V33">
         <v>7.2499999999999995E-2</v>
       </c>
+      <c r="W33">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="X33" s="14">
+        <v>0.16</v>
+      </c>
       <c r="Y33">
         <v>20</v>
       </c>
@@ -2578,89 +2631,569 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2000</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35">
+        <v>20</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="W35">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="X35" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y35">
+        <v>20</v>
+      </c>
+      <c r="Z35">
+        <v>20</v>
+      </c>
+      <c r="AA35">
+        <v>30</v>
+      </c>
+      <c r="AB35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2000</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36">
+        <v>20</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>53</v>
+      </c>
+      <c r="U36" t="s">
+        <v>44</v>
+      </c>
+      <c r="V36">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y36">
+        <v>20</v>
+      </c>
+      <c r="Z36">
+        <v>20</v>
+      </c>
+      <c r="AA36">
+        <v>30</v>
+      </c>
+      <c r="AB36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2000</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37">
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>53</v>
+      </c>
+      <c r="U37" t="s">
+        <v>45</v>
+      </c>
+      <c r="V37">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y37">
+        <v>20</v>
+      </c>
+      <c r="Z37">
+        <v>20</v>
+      </c>
+      <c r="AA37">
+        <v>30</v>
+      </c>
+      <c r="AB37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2000</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38">
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" t="s">
+        <v>46</v>
+      </c>
+      <c r="V38">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Y38">
+        <v>20</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
+      <c r="AA38">
+        <v>30</v>
+      </c>
+      <c r="AB38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>2000</v>
       </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
         <v>6</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G39" t="s">
         <v>4</v>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J34">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>16</v>
       </c>
-      <c r="O34">
-        <v>20</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="O39">
+        <v>20</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>5</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
         <v>53</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U39" t="s">
         <v>47</v>
       </c>
-      <c r="V34">
+      <c r="V39">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="Y34">
-        <v>20</v>
-      </c>
-      <c r="Z34">
-        <v>20</v>
-      </c>
-      <c r="AA34">
-        <v>30</v>
-      </c>
-      <c r="AB34">
+      <c r="Y39">
+        <v>20</v>
+      </c>
+      <c r="Z39">
+        <v>20</v>
+      </c>
+      <c r="AA39">
+        <v>30</v>
+      </c>
+      <c r="AB39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2000</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40">
+        <v>20</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>49</v>
+      </c>
+      <c r="V40">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="W40">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="X40" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="Y40">
+        <v>20</v>
+      </c>
+      <c r="Z40">
+        <v>20</v>
+      </c>
+      <c r="AA40">
+        <v>30</v>
+      </c>
+      <c r="AB40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2000</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41">
+        <v>20</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>49</v>
+      </c>
+      <c r="V41">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="W41">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="X41" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="Y41">
+        <v>20</v>
+      </c>
+      <c r="Z41">
+        <v>20</v>
+      </c>
+      <c r="AA41">
+        <v>30</v>
+      </c>
+      <c r="AB41">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C34 C5:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C41 C5:C33">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T28 T30:T34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T35:T41 T5:T33">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -678,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
@@ -691,6 +691,7 @@
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="18" max="20" width="12.5703125" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" customWidth="1"/>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>2015 UCRP portfolio</t>
   </si>
   <si>
-    <t>Allan portfolio</t>
-  </si>
-  <si>
     <t>RS6.noCap</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>RS7.ADC</t>
+  </si>
+  <si>
+    <t>Callan portfolio</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -345,14 +345,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -678,25 +672,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="18" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="18" max="20" width="12.625" customWidth="1"/>
+    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="27" max="27" width="11.125" customWidth="1"/>
+    <col min="28" max="28" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -790,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -871,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -952,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2000</v>
@@ -1033,7 +1027,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -1114,7 +1108,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -1195,7 +1189,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2000</v>
@@ -1276,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>2000</v>
@@ -1356,7 +1350,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>2000</v>
@@ -1436,7 +1430,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1578,7 +1572,7 @@
       <c r="W18">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18" s="12">
         <v>0.1</v>
       </c>
       <c r="Y18">
@@ -1658,7 +1652,7 @@
       <c r="V19">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="X19" s="15"/>
+      <c r="X19" s="13"/>
       <c r="Y19">
         <v>20</v>
       </c>
@@ -1736,7 +1730,7 @@
       <c r="V20">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="X20" s="15"/>
+      <c r="X20" s="13"/>
       <c r="Y20">
         <v>20</v>
       </c>
@@ -1814,7 +1808,7 @@
       <c r="V21">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="X21" s="15"/>
+      <c r="X21" s="13"/>
       <c r="Y21">
         <v>20</v>
       </c>
@@ -1892,7 +1886,7 @@
       <c r="V22">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="X22" s="15"/>
+      <c r="X22" s="13"/>
       <c r="Y22">
         <v>20</v>
       </c>
@@ -1973,7 +1967,7 @@
       <c r="W23">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X23" s="12">
         <v>0.11</v>
       </c>
       <c r="Y23">
@@ -1994,7 +1988,7 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2056,7 +2050,7 @@
       <c r="W24">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24" s="12">
         <v>0.16</v>
       </c>
       <c r="Y24">
@@ -2073,7 +2067,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="X25" s="14"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2142,7 +2136,7 @@
       <c r="W27">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="11">
         <v>0.1</v>
       </c>
       <c r="Y27">
@@ -2468,7 +2462,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
@@ -2533,7 +2527,7 @@
       <c r="W32">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="X32" s="14">
+      <c r="X32" s="12">
         <v>0.11</v>
       </c>
       <c r="Y32">
@@ -2551,10 +2545,10 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2616,7 +2610,7 @@
       <c r="W33">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X33" s="14">
+      <c r="X33" s="12">
         <v>0.16</v>
       </c>
       <c r="Y33">
@@ -2699,7 +2693,7 @@
       <c r="W35">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="11">
         <v>0.1</v>
       </c>
       <c r="Y35">
@@ -3025,7 +3019,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -3090,7 +3084,7 @@
       <c r="W40">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="X40" s="14">
+      <c r="X40" s="12">
         <v>0.11</v>
       </c>
       <c r="Y40">
@@ -3108,10 +3102,10 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3173,7 +3167,7 @@
       <c r="W41">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="X41" s="14">
+      <c r="X41" s="12">
         <v>0.16</v>
       </c>
       <c r="Y41">
@@ -3207,14 +3201,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="B2 C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,15 +3235,15 @@
       <c r="B2">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="C2" s="13">
-        <v>0.1</v>
+      <c r="C2" s="12">
+        <v>0.12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>B2-C2^2/2</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3259,8 +3253,8 @@
       <c r="B3" s="7">
         <v>0.05</v>
       </c>
-      <c r="C3" s="8">
-        <v>0.1</v>
+      <c r="C3" s="12">
+        <v>0.12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3276,8 +3270,8 @@
       <c r="B4" s="7">
         <v>5.3749999999999999E-2</v>
       </c>
-      <c r="C4" s="8">
-        <v>0.1</v>
+      <c r="C4" s="12">
+        <v>0.12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3293,8 +3287,8 @@
       <c r="B5" s="7">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.1</v>
+      <c r="C5" s="12">
+        <v>0.12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3310,8 +3304,8 @@
       <c r="B6" s="7">
         <v>6.1249999999999999E-2</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.1</v>
+      <c r="C6" s="12">
+        <v>0.12</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3327,8 +3321,8 @@
       <c r="B7" s="7">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C7" s="8">
-        <v>0.1</v>
+      <c r="C7" s="12">
+        <v>0.12</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3344,8 +3338,8 @@
       <c r="B8" s="7">
         <v>6.8750000000000006E-2</v>
       </c>
-      <c r="C8" s="8">
-        <v>0.1</v>
+      <c r="C8" s="12">
+        <v>0.12</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3361,15 +3355,15 @@
       <c r="B9" s="7">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="C9" s="8">
-        <v>0.1</v>
+      <c r="C9" s="12">
+        <v>0.12</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>B9-C9^2/2</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3379,15 +3373,15 @@
       <c r="B10">
         <v>0.05</v>
       </c>
-      <c r="C10">
-        <v>0.1</v>
+      <c r="C10" s="12">
+        <v>0.12</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
         <f>B10-C10^2/2</f>
-        <v>4.4999999999999998E-2</v>
+        <v>4.2800000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,15 +3391,15 @@
       <c r="B11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C11">
-        <v>0.1</v>
+      <c r="C11" s="12">
+        <v>0.12</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
         <f>B11-C11^2/2</f>
-        <v>6.5000000000000002E-2</v>
+        <v>6.2800000000000009E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,105 +3409,105 @@
       <c r="B12">
         <v>0.08</v>
       </c>
-      <c r="C12">
-        <v>0.1</v>
+      <c r="C12" s="12">
+        <v>0.12</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
       <c r="E12">
         <f>B12-C12^2/2</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>5.5E-2</v>
       </c>
-      <c r="C13" s="11">
-        <v>0.1</v>
+      <c r="C13" s="12">
+        <v>0.12</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" ref="E13:E17" si="0">B13-C13^2/2</f>
-        <v>0.05</v>
+        <v>4.7800000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C14" s="11">
-        <v>0.1</v>
+      <c r="C14" s="12">
+        <v>0.12</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>5.7800000000000004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="C15" s="11">
-        <v>0.1</v>
+      <c r="C15" s="12">
+        <v>0.12</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>7.2499999999999995E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>0.06</v>
       </c>
-      <c r="C16" s="13">
-        <v>0.1</v>
+      <c r="C16" s="12">
+        <v>0.12</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>5.4999999999999993E-2</v>
+        <v>5.28E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>0.08</v>
       </c>
-      <c r="C17" s="13">
-        <v>0.1</v>
+      <c r="C17" s="12">
+        <v>0.12</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FullOverride/RunControl_fullOverride.xlsx
+++ b/FullOverride/RunControl_fullOverride.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AB41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3202,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3233,7 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>7.7499999999999999E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="C2" s="12">
         <v>0.12</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="E2" s="8">
         <f>B2-C2^2/2</f>
-        <v>7.0300000000000001E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="7">
-        <v>7.7499999999999999E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="C9" s="12">
         <v>0.12</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="E9" s="8">
         <f>B9-C9^2/2</f>
-        <v>7.0300000000000001E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3371,7 +3371,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="C10" s="12">
         <v>0.12</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E10">
         <f>B10-C10^2/2</f>
-        <v>4.2800000000000005E-2</v>
+        <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>7.0000000000000007E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="C11" s="12">
         <v>0.12</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="E11">
         <f>B11-C11^2/2</f>
-        <v>6.2800000000000009E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>45</v>
       </c>
       <c r="B12">
-        <v>0.08</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C12" s="12">
         <v>0.12</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="E12">
         <f>B12-C12^2/2</f>
-        <v>7.2800000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="9">
-        <v>5.5E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="C13" s="12">
         <v>0.12</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ref="E13:E17" si="0">B13-C13^2/2</f>
-        <v>4.7800000000000002E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="9">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="C14" s="12">
         <v>0.12</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>5.7800000000000004E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="9">
-        <v>7.7499999999999999E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="C15" s="12">
         <v>0.12</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>7.0300000000000001E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>47</v>
       </c>
       <c r="B16" s="10">
-        <v>0.06</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="C16" s="12">
         <v>0.12</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>5.28E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,7 +3497,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="10">
-        <v>0.08</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C17" s="12">
         <v>0.12</v>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" si="0"/>
-        <v>7.2800000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
